--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ABD2E-C03A-412F-B57F-E615610BE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="גיליון1" sheetId="1" r:id="rId4"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -92,26 +101,37 @@
   </si>
   <si>
     <t xml:space="preserve">תיאור קצר </t>
+  </si>
+  <si>
+    <t>שאלות למורה:</t>
+  </si>
+  <si>
+    <t>באיזה ספרייה להשתמש עם תמונות</t>
+  </si>
+  <si>
+    <t>לשאול על הabiliteis בסרבר...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -122,7 +142,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -132,7 +152,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -146,32 +172,36 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -182,11 +212,17 @@
     <xdr:ext cx="2076450" cy="3248025"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="תמונה"/>
+        <xdr:cNvPr id="2" name="image1.png" title="תמונה">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -204,7 +240,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -394,87 +430,102 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="7">
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
@@ -482,57 +533,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
@@ -540,17 +591,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6ABD2E-C03A-412F-B57F-E615610BE9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE0FA7-DE4A-4B8A-A8FA-3DC05EF4583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -106,10 +106,16 @@
     <t>שאלות למורה:</t>
   </si>
   <si>
-    <t>באיזה ספרייה להשתמש עם תמונות</t>
-  </si>
-  <si>
-    <t>לשאול על הabiliteis בסרבר...</t>
+    <t>DRIVE תמונות</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>לטפל שאם המשתמש לא מחובר אז לא לאפשר הסתכלות בהזמנות</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -468,33 +474,38 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AE0FA7-DE4A-4B8A-A8FA-3DC05EF4583D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -116,12 +115,15 @@
   </si>
   <si>
     <t>לטפל שאם המשתמש לא מחובר אז לא לאפשר הסתכלות בהזמנות</t>
+  </si>
+  <si>
+    <t>שברענון המשתמש לא יצא</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -442,27 +444,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -470,13 +472,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
@@ -484,7 +486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -492,7 +494,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -500,7 +502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -508,35 +510,38 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
-    </row>
-    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
@@ -544,57 +549,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="13" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
@@ -602,12 +607,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C2B24-7E9C-4B0B-9960-082F2DC583EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -105,9 +106,6 @@
     <t>שאלות למורה:</t>
   </si>
   <si>
-    <t>DRIVE תמונות</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -118,12 +116,18 @@
   </si>
   <si>
     <t>שברענון המשתמש לא יצא</t>
+  </si>
+  <si>
+    <t>אם מוחקים מתנב למחוק גם את התרומה?</t>
+  </si>
+  <si>
+    <t>תורמים מתרימים מה לעשות?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -444,27 +448,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,76 +476,81 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
         <v>11</v>
       </c>
@@ -549,57 +558,57 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" ht="13" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
         <v>23</v>
       </c>
@@ -607,12 +616,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.3">
       <c r="C50" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C51" s="1" t="s">
         <v>26</v>
       </c>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C2B24-7E9C-4B0B-9960-082F2DC583EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC8F793-8C19-4FCC-A369-FD2C1F56E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -109,9 +109,6 @@
     <t>ROLE</t>
   </si>
   <si>
-    <t>LINK</t>
-  </si>
-  <si>
     <t>לטפל שאם המשתמש לא מחובר אז לא לאפשר הסתכלות בהזמנות</t>
   </si>
   <si>
@@ -122,13 +119,290 @@
   </si>
   <si>
     <t>תורמים מתרימים מה לעשות?</t>
+  </si>
+  <si>
+    <t>האם לשמור בDB את פרטי האשראי</t>
+  </si>
+  <si>
+    <t>מה נשאר לעשות:</t>
+  </si>
+  <si>
+    <t>כפתור קנייה -לוגית</t>
+  </si>
+  <si>
+    <t>JWT</t>
+  </si>
+  <si>
+    <t>תמונות</t>
+  </si>
+  <si>
+    <t>חבילות מיוחדים</t>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>TABLE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFDCDCAA"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>orders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    order_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> AUTO_INCREMENT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PRIMARY KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    user_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    gift_id </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>INT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    order_date </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>DATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (user_id) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REFERENCES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> users(user_id),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>FOREIGN KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> (gift_id) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>REFERENCES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> gifts(gift_id)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF569CD6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ON DELETE CASCADE</t>
+    </r>
+  </si>
+  <si>
+    <t>);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -147,6 +421,24 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF569CD6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFDCDCAA"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,11 +482,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,11 +752,14 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="36.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
@@ -472,6 +773,9 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
       <c r="H4" t="s">
         <v>27</v>
       </c>
@@ -480,25 +784,37 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
       <c r="H7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
@@ -508,39 +824,88 @@
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" ht="13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,6 +993,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC8F793-8C19-4FCC-A369-FD2C1F56E697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C0024-8DDE-4EA3-950D-3479E650FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>האם לששמור מחיר הזמנה כולל בתור שדה נוסף בהזמנות?</t>
+  </si>
+  <si>
+    <t>לשמור פרטי אשראי בDB?</t>
   </si>
 </sst>
 </file>
@@ -752,8 +758,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -823,6 +829,9 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
@@ -830,6 +839,9 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622C0024-8DDE-4EA3-950D-3479E650FC98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D83E1F-8B81-4469-B442-0E9FAA326295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="2700" windowWidth="13030" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>לשמור פרטי אשראי בDB?</t>
+  </si>
+  <si>
+    <t>להוסיף אפשרות של פח מהסל קניות</t>
+  </si>
+  <si>
+    <t>שאם הוא לא רוצה בסוף שיוכל להוריד את המתנה</t>
   </si>
 </sst>
 </file>
@@ -758,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -840,12 +846,18 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
       <c r="H10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" t="s">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D83E1F-8B81-4469-B442-0E9FAA326295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0419F-5676-4D2E-BA74-F0516B38C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2700" windowWidth="13030" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>שאם הוא לא רוצה בסוף שיוכל להוריד את המתנה</t>
+  </si>
+  <si>
+    <t>האם לעשות כפתור הגרלה לכולם ביחד או לכל מתנה בנפרד?</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -869,6 +872,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4" t="s">
         <v>39</v>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD0419F-5676-4D2E-BA74-F0516B38C0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5694F-4019-4159-ACCA-9CA4D44EE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -109,9 +109,6 @@
     <t>ROLE</t>
   </si>
   <si>
-    <t>לטפל שאם המשתמש לא מחובר אז לא לאפשר הסתכלות בהזמנות</t>
-  </si>
-  <si>
     <t>שברענון המשתמש לא יצא</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
-    <t>כפתור קנייה -לוגית</t>
-  </si>
-  <si>
     <t>JWT</t>
   </si>
   <si>
@@ -404,13 +398,16 @@
     <t>לשמור פרטי אשראי בDB?</t>
   </si>
   <si>
-    <t>להוסיף אפשרות של פח מהסל קניות</t>
-  </si>
-  <si>
-    <t>שאם הוא לא רוצה בסוף שיוכל להוריד את המתנה</t>
-  </si>
-  <si>
     <t>האם לעשות כפתור הגרלה לכולם ביחד או לכל מתנה בנפרד?</t>
+  </si>
+  <si>
+    <t>עדכון והספת תמונות רק אחרי הרענון עובד</t>
+  </si>
+  <si>
+    <t>בעיה בWINNERS</t>
+  </si>
+  <si>
+    <t>לשנות את הalt של התמוות</t>
   </si>
 </sst>
 </file>
@@ -767,8 +764,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -789,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -800,27 +797,24 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
         <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -839,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,7 +847,7 @@
         <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,62 +858,62 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G24" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E5694F-4019-4159-ACCA-9CA4D44EE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225E2B7-D6D7-40B6-B56B-331252B5255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t>לשנות את הalt של התמוות</t>
+  </si>
+  <si>
+    <t>לגמור לטפל בכל ענייני התמונות</t>
   </si>
 </sst>
 </file>
@@ -765,7 +768,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -857,6 +860,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225E2B7-D6D7-40B6-B56B-331252B5255B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5FAB3-A6CD-48A8-B482-07B69E07E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -410,7 +410,10 @@
     <t>לשנות את הalt של התמוות</t>
   </si>
   <si>
-    <t>לגמור לטפל בכל ענייני התמונות</t>
+    <t>וגם צריך לפני התשלום ךבדוק שכל השדות מלאים</t>
+  </si>
+  <si>
+    <t>ואדב אחרי הקנניה את צריכה לנקות את העגלת קניות</t>
   </si>
 </sst>
 </file>
@@ -768,7 +771,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -868,6 +871,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E5FAB3-A6CD-48A8-B482-07B69E07E35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7204E3-8027-41FC-8355-EFBEA4B4A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -106,9 +106,6 @@
     <t>שאלות למורה:</t>
   </si>
   <si>
-    <t>ROLE</t>
-  </si>
-  <si>
     <t>שברענון המשתמש לא יצא</t>
   </si>
   <si>
@@ -127,271 +124,9 @@
     <t>JWT</t>
   </si>
   <si>
-    <t>תמונות</t>
-  </si>
-  <si>
     <t>חבילות מיוחדים</t>
   </si>
   <si>
-    <r>
-      <t>CREATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>TABLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFDCDCAA"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    order_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> AUTO_INCREMENT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>PRIMARY KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    user_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    gift_id </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>INT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    order_date </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>DATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>FOREIGN KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (user_id) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>REFERENCES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> users(user_id),</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>FOREIGN KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> (gift_id) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>REFERENCES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> gifts(gift_id)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FF569CD6"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ON DELETE CASCADE</t>
-    </r>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
     <t>האם לששמור מחיר הזמנה כולל בתור שדה נוסף בהזמנות?</t>
   </si>
   <si>
@@ -404,23 +139,14 @@
     <t>עדכון והספת תמונות רק אחרי הרענון עובד</t>
   </si>
   <si>
-    <t>בעיה בWINNERS</t>
-  </si>
-  <si>
     <t>לשנות את הalt של התמוות</t>
-  </si>
-  <si>
-    <t>וגם צריך לפני התשלום ךבדוק שכל השדות מלאים</t>
-  </si>
-  <si>
-    <t>ואדב אחרי הקנניה את צריכה לנקות את העגלת קניות</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -449,12 +175,6 @@
     <font>
       <sz val="7"/>
       <color rgb="FF569CD6"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFDCDCAA"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -770,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -803,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -820,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,10 +548,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,94 +556,62 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
       <c r="H12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Documents\לימודים\פרויקט גמר\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7204E3-8027-41FC-8355-EFBEA4B4A083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED997D6E-0D3B-40B8-8725-DC0B762DB599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>לשנות את הalt של התמוות</t>
+  </si>
+  <si>
+    <t>האם צריך לשמור את פרטי סל הקניות לכל משתמש מיציאה ליציאה?</t>
   </si>
 </sst>
 </file>
@@ -581,6 +584,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+    </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
         <v>37</v>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED997D6E-0D3B-40B8-8725-DC0B762DB599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABE99C-8A9B-47FE-A2A5-A993FFE04324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -115,9 +115,6 @@
     <t>תורמים מתרימים מה לעשות?</t>
   </si>
   <si>
-    <t>האם לשמור בDB את פרטי האשראי</t>
-  </si>
-  <si>
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
@@ -130,19 +127,10 @@
     <t>האם לששמור מחיר הזמנה כולל בתור שדה נוסף בהזמנות?</t>
   </si>
   <si>
-    <t>לשמור פרטי אשראי בDB?</t>
-  </si>
-  <si>
-    <t>האם לעשות כפתור הגרלה לכולם ביחד או לכל מתנה בנפרד?</t>
-  </si>
-  <si>
-    <t>עדכון והספת תמונות רק אחרי הרענון עובד</t>
-  </si>
-  <si>
-    <t>לשנות את הalt של התמוות</t>
-  </si>
-  <si>
     <t>האם צריך לשמור את פרטי סל הקניות לכל משתמש מיציאה ליציאה?</t>
+  </si>
+  <si>
+    <t>להוריד את אפשרות האשראי</t>
   </si>
 </sst>
 </file>
@@ -494,7 +482,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -515,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -525,9 +513,6 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -551,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -562,7 +547,7 @@
         <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -570,28 +555,15 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FABE99C-8A9B-47FE-A2A5-A993FFE04324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDE31A-8A40-4510-BBEE-3031398C71FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -106,12 +106,6 @@
     <t>שאלות למורה:</t>
   </si>
   <si>
-    <t>שברענון המשתמש לא יצא</t>
-  </si>
-  <si>
-    <t>אם מוחקים מתנב למחוק גם את התרומה?</t>
-  </si>
-  <si>
     <t>תורמים מתרימים מה לעשות?</t>
   </si>
   <si>
@@ -124,13 +118,16 @@
     <t>חבילות מיוחדים</t>
   </si>
   <si>
-    <t>האם לששמור מחיר הזמנה כולל בתור שדה נוסף בהזמנות?</t>
-  </si>
-  <si>
-    <t>האם צריך לשמור את פרטי סל הקניות לכל משתמש מיציאה ליציאה?</t>
-  </si>
-  <si>
     <t>להוריד את אפשרות האשראי</t>
+  </si>
+  <si>
+    <t>לשמור משתמש ברענון</t>
+  </si>
+  <si>
+    <t>לשמו רכשאין משתמש בסל קניות את המתנות</t>
+  </si>
+  <si>
+    <t>עיצובבבב</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -503,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>27</v>
@@ -513,22 +510,25 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -544,9 +544,6 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -554,17 +551,12 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>34</v>
+      <c r="F10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDE31A-8A40-4510-BBEE-3031398C71FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB514919-5BA9-47A5-A0FD-C4EE4B1C1319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>עיצובבבב</t>
+  </si>
+  <si>
+    <t>איפה לשמור את הaccses TOKEN</t>
+  </si>
+  <si>
+    <t>והאם בהצפנה?</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -513,11 +519,16 @@
       <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB514919-5BA9-47A5-A0FD-C4EE4B1C1319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E35F6-190D-46CF-B8DB-2FAF16FA9E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>והאם בהצפנה?</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -549,6 +552,9 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67E35F6-190D-46CF-B8DB-2FAF16FA9E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B8FD0-1C0E-4F85-9016-85406B5F26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -103,40 +103,25 @@
     <t xml:space="preserve">תיאור קצר </t>
   </si>
   <si>
-    <t>שאלות למורה:</t>
-  </si>
-  <si>
-    <t>תורמים מתרימים מה לעשות?</t>
-  </si>
-  <si>
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
-    <t>JWT</t>
-  </si>
-  <si>
     <t>חבילות מיוחדים</t>
   </si>
   <si>
-    <t>להוריד את אפשרות האשראי</t>
-  </si>
-  <si>
-    <t>לשמור משתמש ברענון</t>
-  </si>
-  <si>
-    <t>לשמו רכשאין משתמש בסל קניות את המתנות</t>
-  </si>
-  <si>
     <t>עיצובבבב</t>
   </si>
   <si>
-    <t>איפה לשמור את הaccses TOKEN</t>
-  </si>
-  <si>
-    <t>והאם בהצפנה?</t>
-  </si>
-  <si>
-    <t>JSON</t>
+    <t>תורמים</t>
+  </si>
+  <si>
+    <t>PAYPAL</t>
+  </si>
+  <si>
+    <t>GOOGLE</t>
+  </si>
+  <si>
+    <t>לתקן SIGNUP</t>
   </si>
 </sst>
 </file>
@@ -487,8 +472,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -509,9 +494,6 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -520,18 +502,13 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -539,10 +516,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -550,10 +524,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -569,7 +540,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38B8FD0-1C0E-4F85-9016-85406B5F26D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A8FEF-4671-4044-B22B-377D98C0145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="2710" windowWidth="13030" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>לתקן SIGNUP</t>
+  </si>
+  <si>
+    <t>להגביל את הכמות שלא תהיה 0 ומטה</t>
+  </si>
+  <si>
+    <t>לסדר אתענייני התשלום</t>
+  </si>
+  <si>
+    <t>לשאול את המורה:</t>
+  </si>
+  <si>
+    <t>האם לבדוק שאם המשתמש יצא מהאתר בלי LOGOUT אז יישמר בSHOPPINGCART הפרטי הזמנה</t>
+  </si>
+  <si>
+    <t>להגדיל 30 שניות של REFRESH לפני ההגשה</t>
+  </si>
+  <si>
+    <t>רענון בUSERDETAILES לא עובד</t>
   </si>
 </sst>
 </file>
@@ -473,7 +491,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -504,12 +522,17 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>31</v>
       </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
@@ -545,6 +568,24 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211A8FEF-4671-4044-B22B-377D98C0145E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB7479-B1CF-47C5-A089-F50F8F2E42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="2710" windowWidth="13030" windowHeight="7350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -106,18 +106,12 @@
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
-    <t>חבילות מיוחדים</t>
-  </si>
-  <si>
     <t>עיצובבבב</t>
   </si>
   <si>
     <t>תורמים</t>
   </si>
   <si>
-    <t>PAYPAL</t>
-  </si>
-  <si>
     <t>GOOGLE</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>רענון בUSERDETAILES לא עובד</t>
+  </si>
+  <si>
+    <t>להפוך את אימייל לייחודי</t>
+  </si>
+  <si>
+    <t>לגמור תהליך קנייה (למחוק מהSHOPPINGCART אם צריך...</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -519,19 +519,13 @@
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -539,7 +533,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -547,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -555,7 +549,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -563,28 +557,38 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DB7479-B1CF-47C5-A089-F50F8F2E42EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E81689-13A2-4D22-A4B1-78E0E7BC3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E81689-13A2-4D22-A4B1-78E0E7BC3A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593153AE-16B0-447C-ACA4-C8F573F61DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -109,21 +109,6 @@
     <t>עיצובבבב</t>
   </si>
   <si>
-    <t>תורמים</t>
-  </si>
-  <si>
-    <t>GOOGLE</t>
-  </si>
-  <si>
-    <t>לתקן SIGNUP</t>
-  </si>
-  <si>
-    <t>להגביל את הכמות שלא תהיה 0 ומטה</t>
-  </si>
-  <si>
-    <t>לסדר אתענייני התשלום</t>
-  </si>
-  <si>
     <t>לשאול את המורה:</t>
   </si>
   <si>
@@ -133,13 +118,19 @@
     <t>להגדיל 30 שניות של REFRESH לפני ההגשה</t>
   </si>
   <si>
-    <t>רענון בUSERDETAILES לא עובד</t>
-  </si>
-  <si>
     <t>להפוך את אימייל לייחודי</t>
   </si>
   <si>
-    <t>לגמור תהליך קנייה (למחוק מהSHOPPINGCART אם צריך...</t>
+    <t>לטפל באישור תורמים אצל המנהל</t>
+  </si>
+  <si>
+    <t>להוסיף גרף תורמים אצל המנהל</t>
+  </si>
+  <si>
+    <t>GOOGLE בהתחברות</t>
+  </si>
+  <si>
+    <t>רענון עמוד בPAYMENT</t>
   </si>
 </sst>
 </file>
@@ -491,7 +482,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -520,12 +511,12 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
@@ -540,55 +531,46 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593153AE-16B0-447C-ACA4-C8F573F61DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796539D5-BDA4-4DD4-9915-02BE5A0BCE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -118,19 +118,16 @@
     <t>להגדיל 30 שניות של REFRESH לפני ההגשה</t>
   </si>
   <si>
-    <t>להפוך את אימייל לייחודי</t>
-  </si>
-  <si>
     <t>לטפל באישור תורמים אצל המנהל</t>
   </si>
   <si>
-    <t>להוסיף גרף תורמים אצל המנהל</t>
-  </si>
-  <si>
     <t>GOOGLE בהתחברות</t>
   </si>
   <si>
-    <t>רענון עמוד בPAYMENT</t>
+    <t>להוסיף בעמוד PAYMENT סיכום קטן של ההזמנה</t>
+  </si>
+  <si>
+    <t>לא להרשות אחרי מעבר לPAYMENT לחיצה על הNAV</t>
   </si>
 </sst>
 </file>
@@ -481,8 +478,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -537,7 +534,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -553,30 +550,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796539D5-BDA4-4DD4-9915-02BE5A0BCE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54692F1-001F-47C5-815B-B37A0428DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>לא להרשות אחרי מעבר לPAYMENT לחיצה על הNAV</t>
+  </si>
+  <si>
+    <t>לא להרשות מעבר לתשלום אם יש חבילה שלא כל המתנות נבחרו בה</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -568,6 +571,9 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54692F1-001F-47C5-815B-B37A0428DB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB855FE-01F4-4DC7-A69A-38E5FF172AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -121,16 +121,7 @@
     <t>לטפל באישור תורמים אצל המנהל</t>
   </si>
   <si>
-    <t>GOOGLE בהתחברות</t>
-  </si>
-  <si>
-    <t>להוסיף בעמוד PAYMENT סיכום קטן של ההזמנה</t>
-  </si>
-  <si>
-    <t>לא להרשות אחרי מעבר לPAYMENT לחיצה על הNAV</t>
-  </si>
-  <si>
-    <t>לא להרשות מעבר לתשלום אם יש חבילה שלא כל המתנות נבחרו בה</t>
+    <t>להוסיף למתנדבים בקומפוננטה PROFILE עוד מידע</t>
   </si>
 </sst>
 </file>
@@ -211,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -221,6 +212,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,14 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -531,49 +528,41 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="F10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>34</v>
-      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -699,5 +688,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB855FE-01F4-4DC7-A69A-38E5FF172AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD56BB-85C5-4146-9951-69924EE05C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>להוסיף למתנדבים בקומפוננטה PROFILE עוד מידע</t>
+  </si>
+  <si>
+    <t>לאפשר למתרים לעשותת קנייה גם בשביל עצמו (ואז לטפל לו גם בבונוס)</t>
   </si>
 </sst>
 </file>
@@ -272,6 +275,189 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCC090B-2995-CC90-2A33-DAF120D72110}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="1905000"/>
+          <a:ext cx="2076450" cy="3244850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B4976E-8B2D-0008-31BE-5A08984888BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="1905000"/>
+          <a:ext cx="2076450" cy="3244850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B906F-7DF1-0C20-20B8-99013F3F53B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1752600" y="1905000"/>
+          <a:ext cx="2076450" cy="3244850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -472,14 +658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -553,7 +739,9 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -688,6 +876,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DD56BB-85C5-4146-9951-69924EE05C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B43A5-846E-466A-92A6-786E5AF81D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -121,10 +121,25 @@
     <t>לטפל באישור תורמים אצל המנהל</t>
   </si>
   <si>
-    <t>להוסיף למתנדבים בקומפוננטה PROFILE עוד מידע</t>
-  </si>
-  <si>
     <t>לאפשר למתרים לעשותת קנייה גם בשביל עצמו (ואז לטפל לו גם בבונוס)</t>
+  </si>
+  <si>
+    <t>עיצוב:</t>
+  </si>
+  <si>
+    <t>לוג אוט</t>
+  </si>
+  <si>
+    <t>נאב</t>
+  </si>
+  <si>
+    <t>עמוד מתנות</t>
+  </si>
+  <si>
+    <t>עמוד של הצגת כל ההזמנות</t>
+  </si>
+  <si>
+    <t>עגלת קניות</t>
   </si>
 </sst>
 </file>
@@ -665,7 +680,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -723,9 +738,7 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -740,11 +753,44 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0B43A5-846E-466A-92A6-786E5AF81D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FB4BA-88FA-4F06-9888-084E030282C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>עגלת קניות</t>
+  </si>
+  <si>
+    <t>בעיה מוזרה שקופצת רק לאביטל:</t>
   </si>
 </sst>
 </file>
@@ -473,6 +476,237 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B45B88D-CB32-87CD-DCBC-0A3F678482C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14353406650" y="4464050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE8683-02AA-4B6C-A49B-F1BEA66A6AF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14353406650" y="4464050"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C887196-E551-82B2-BA3B-D7F53E67E642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14353406650" y="4857750"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1029" name="AutoShape 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43524D0-0076-12F1-3030-79226FFE368A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14353406650" y="5251450"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>717550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="תמונה 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41944BD0-FA33-DC11-47C0-FFD4AAEBCA52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14349869700" y="4489450"/>
+          <a:ext cx="4876800" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -679,8 +913,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,16 +1037,13 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>40</v>
+      </c>
       <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967FB4BA-88FA-4F06-9888-084E030282C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325695B0-753D-4CC6-862D-AD4C96B3FD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>עמוד הבית:</t>
   </si>
@@ -106,9 +106,6 @@
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
-    <t>עיצובבבב</t>
-  </si>
-  <si>
     <t>לשאול את המורה:</t>
   </si>
   <si>
@@ -133,16 +130,13 @@
     <t>נאב</t>
   </si>
   <si>
-    <t>עמוד מתנות</t>
-  </si>
-  <si>
     <t>עמוד של הצגת כל ההזמנות</t>
   </si>
   <si>
-    <t>עגלת קניות</t>
-  </si>
-  <si>
     <t>בעיה מוזרה שקופצת רק לאביטל:</t>
+  </si>
+  <si>
+    <t>ולבדוק נכונות של נתונים בריאקט ובסרבר של הוספת מתנה</t>
   </si>
 </sst>
 </file>
@@ -913,8 +907,8 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -943,28 +937,25 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="6"/>
     </row>
@@ -980,51 +971,43 @@
         <v>6</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1038,7 +1021,7 @@
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" s="5"/>
     </row>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325695B0-753D-4CC6-862D-AD4C96B3FD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E025426-C4C4-44F4-9643-1505E71699BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,7 +908,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E025426-C4C4-44F4-9643-1505E71699BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC87F65-23FE-4F4F-8557-D5F0E9CA1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,88 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
-  <si>
-    <t>עמוד הבית:</t>
-  </si>
-  <si>
-    <t>NAV-לוגין\סיינין, פרופיל, עגלת קניות, זוכים,אודות (אופציונלי)</t>
-  </si>
-  <si>
-    <t>מתחת לNAV כל המתנות</t>
-  </si>
-  <si>
-    <t>עמוד סיינין:</t>
-  </si>
-  <si>
-    <t>שדה לשם משתמש שדה לסיסמא</t>
-  </si>
-  <si>
-    <t>כפתור התחברות</t>
-  </si>
-  <si>
-    <t>עמוד המשך רישום:</t>
-  </si>
-  <si>
-    <t>עמוד לוגין:</t>
-  </si>
-  <si>
-    <t>שדה למשתמש שדה סיסמא</t>
-  </si>
-  <si>
-    <t>שדה אימות סיסמא</t>
-  </si>
-  <si>
-    <t>עמוד פרופיל:</t>
-  </si>
-  <si>
-    <t>בצד: הפרטים שלי</t>
-  </si>
-  <si>
-    <t>כולל בונוס</t>
-  </si>
-  <si>
-    <t>ההזמנות שלי</t>
-  </si>
-  <si>
-    <t>התורמים שלי</t>
-  </si>
-  <si>
-    <t>עמוד עגלת קניות:</t>
-  </si>
-  <si>
-    <t>פרטים על המתנות הנקנות</t>
-  </si>
-  <si>
-    <t>כפתור לקנייה (אם לא רשום יועבר לעמוד ההתחברות)</t>
-  </si>
-  <si>
-    <t>עמוד תשלום:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">פרטי אשראי </t>
-  </si>
-  <si>
-    <t>שדה לבונוס</t>
-  </si>
-  <si>
-    <t>כפתור קנייה</t>
-  </si>
-  <si>
-    <t>עמוד זוכים:</t>
-  </si>
-  <si>
-    <t>תוצג רשימת הזוכים</t>
-  </si>
-  <si>
-    <t>במקרה שאין עדיין זוכים תוצג הודעה מתאימה על תאריך ההגרלה</t>
-  </si>
-  <si>
-    <t>עמוד אודות:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">תיאור קצר </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>מה נשאר לעשות:</t>
   </si>
@@ -122,15 +41,6 @@
   </si>
   <si>
     <t>עיצוב:</t>
-  </si>
-  <si>
-    <t>לוג אוט</t>
-  </si>
-  <si>
-    <t>נאב</t>
-  </si>
-  <si>
-    <t>עמוד של הצגת כל ההזמנות</t>
   </si>
   <si>
     <t>בעיה מוזרה שקופצת רק לאביטל:</t>
@@ -143,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -151,13 +61,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -176,18 +79,12 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -217,15 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -253,223 +149,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2076450" cy="3248025"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png" title="תמונה">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="image1.png">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCC090B-2995-CC90-2A33-DAF120D72110}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1752600" y="1905000"/>
-          <a:ext cx="2076450" cy="3244850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1026" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19B4976E-8B2D-0008-31BE-5A08984888BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1752600" y="1905000"/>
-          <a:ext cx="2076450" cy="3244850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1027" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B5B906F-7DF1-0C20-20B8-99013F3F53B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1752600" y="1905000"/>
-          <a:ext cx="2076450" cy="3244850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -620,7 +299,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -668,7 +347,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -684,7 +363,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -908,7 +587,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -919,219 +598,140 @@
     <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
+      <c r="H6" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+      <c r="F8" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="G23" s="4"/>
     </row>
     <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="3:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="C28" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
+      <c r="C27" s="1"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C33" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C38" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C43" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" ht="13" x14ac:dyDescent="0.3">
-      <c r="C47" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="3:3" ht="13" x14ac:dyDescent="0.3">
-      <c r="C50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="3:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="C51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\214385239\Desktop\‏‏תיקיה חדשה\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC87F65-23FE-4F4F-8557-D5F0E9CA1B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="תרשים1" sheetId="2" r:id="rId1"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -25,34 +25,34 @@
     <t>מה נשאר לעשות:</t>
   </si>
   <si>
-    <t>לשאול את המורה:</t>
-  </si>
-  <si>
-    <t>האם לבדוק שאם המשתמש יצא מהאתר בלי LOGOUT אז יישמר בSHOPPINGCART הפרטי הזמנה</t>
-  </si>
-  <si>
-    <t>להגדיל 30 שניות של REFRESH לפני ההגשה</t>
-  </si>
-  <si>
     <t>לטפל באישור תורמים אצל המנהל</t>
   </si>
   <si>
-    <t>לאפשר למתרים לעשותת קנייה גם בשביל עצמו (ואז לטפל לו גם בבונוס)</t>
+    <t>ולבדוק נכונות של נתונים בריאקט ובסרבר של הוספת מתנה</t>
   </si>
   <si>
-    <t>עיצוב:</t>
+    <t>מייל בסרבר</t>
   </si>
   <si>
-    <t>בעיה מוזרה שקופצת רק לאביטל:</t>
+    <t>סיסמא גם בריאקט וגם בסרבר</t>
   </si>
   <si>
-    <t>ולבדוק נכונות של נתונים בריאקט ובסרבר של הוספת מתנה</t>
+    <t>פלאפון</t>
+  </si>
+  <si>
+    <t>תקינות ינפוט</t>
+  </si>
+  <si>
+    <t>בדיקת מחיר</t>
+  </si>
+  <si>
+    <t>להגדיל 30 שניות של REFRESH לפני ההגשה ל5 דקות</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -147,7 +147,835 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="he-IL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="he-IL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>גיליון1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>גיליון1!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-90CF-4CD8-8421-A619D513536D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="739014864"/>
+        <c:axId val="737555600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="739014864"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="737555600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="737555600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="he-IL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="739014864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="he-IL"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9292683" cy="6055732"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -338,46 +1166,170 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>717550</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="תמונה 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41944BD0-FA33-DC11-47C0-FFD4AAEBCA52}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="image.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14349869700" y="4489450"/>
-          <a:ext cx="4876800" cy="1371600"/>
+          <a:off x="13725220200" y="6238875"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
-    </xdr:pic>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="image.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13726896600" y="6400800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="image.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13721867400" y="3590925"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 5" descr="image.png"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13721029200" y="6038850"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -580,158 +1532,163 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-      <c r="H6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="F8" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="6" t="s">
+      <c r="H16" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+      <c r="I16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\214385239\Desktop\‏‏תיקיה חדשה\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אביכל\Desktop\GOOGLE\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B66E4-BAF2-462D-90E0-AC25305ABD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="תרשים1" sheetId="2" r:id="rId1"/>
@@ -20,39 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>מה נשאר לעשות:</t>
-  </si>
-  <si>
-    <t>לטפל באישור תורמים אצל המנהל</t>
-  </si>
-  <si>
-    <t>ולבדוק נכונות של נתונים בריאקט ובסרבר של הוספת מתנה</t>
-  </si>
-  <si>
-    <t>מייל בסרבר</t>
-  </si>
-  <si>
-    <t>סיסמא גם בריאקט וגם בסרבר</t>
-  </si>
-  <si>
-    <t>פלאפון</t>
-  </si>
-  <si>
-    <t>תקינות ינפוט</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>בדיקת מחיר</t>
   </si>
   <si>
-    <t>להגדיל 30 שניות של REFRESH לפני ההגשה ל5 דקות</t>
+    <t>האלעת תמונה לפרופיל</t>
+  </si>
+  <si>
+    <t>לעשות לו משהו יפה אחרי שהוא משלם מודל</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -162,7 +145,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -938,7 +920,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
@@ -955,7 +937,13 @@
     <xdr:ext cx="9292683" cy="6055732"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -995,7 +983,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B45B88D-CB32-87CD-DCBC-0A3F678482C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1026,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE8683-02AA-4B6C-A49B-F1BEA66A6AF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1074,7 @@
         <xdr:cNvPr id="6" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C887196-E551-82B2-BA3B-D7F53E67E642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1122,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43524D0-0076-12F1-3030-79226FFE368A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="image.png"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1221,7 +1215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="image.png"/>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1263,7 +1263,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 4" descr="image.png"/>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1305,7 +1311,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5" descr="image.png"/>
+        <xdr:cNvPr id="2" name="AutoShape 5" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1532,163 +1544,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="1"/>
-      <c r="F4" t="s">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\214385239\Desktop\‏‏תיקיה חדשה\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FA1D63-52CD-4AC5-B2EA-26092A45B99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="תרשים1" sheetId="2" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>מה נשאר לעשות:</t>
   </si>
@@ -29,9 +30,6 @@
   </si>
   <si>
     <t>ולבדוק נכונות של נתונים בריאקט ובסרבר של הוספת מתנה</t>
-  </si>
-  <si>
-    <t>מייל בסרבר</t>
   </si>
   <si>
     <t>סיסמא גם בריאקט וגם בסרבר</t>
@@ -46,13 +44,13 @@
     <t>בדיקת מחיר</t>
   </si>
   <si>
-    <t>להגדיל 30 שניות של REFRESH לפני ההגשה ל5 דקות</t>
+    <t>להוסיף אפשרות להעלאת תמונה</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -162,7 +160,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -938,7 +935,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
@@ -955,7 +952,13 @@
     <xdr:ext cx="9292683" cy="6055732"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvPr id="2" name="תרשים 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -995,7 +998,7 @@
         <xdr:cNvPr id="4" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B45B88D-CB32-87CD-DCBC-0A3F678482C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1038,7 +1041,7 @@
         <xdr:cNvPr id="5" name="AutoShape 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE8683-02AA-4B6C-A49B-F1BEA66A6AF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1086,7 +1089,7 @@
         <xdr:cNvPr id="6" name="AutoShape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C887196-E551-82B2-BA3B-D7F53E67E642}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1137,7 @@
         <xdr:cNvPr id="1029" name="AutoShape 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C43524D0-0076-12F1-3030-79226FFE368A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="AutoShape 1" descr="image.png"/>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1221,7 +1230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="image.png"/>
+        <xdr:cNvPr id="1026" name="AutoShape 2" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1263,7 +1278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="AutoShape 4" descr="image.png"/>
+        <xdr:cNvPr id="1028" name="AutoShape 4" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1305,7 +1326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 5" descr="image.png"/>
+        <xdr:cNvPr id="2" name="AutoShape 5" descr="image.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1532,163 +1559,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="F4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F11" s="6"/>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F16" t="s">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
         <v>3</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>4</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>5</v>
       </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אביכל\Desktop\GOOGLE\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624B66E4-BAF2-462D-90E0-AC25305ABD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AECD63-1F5D-4849-AEE6-1FF0612A902C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>בדיקת מחיר</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>לעשות לו משהו יפה אחרי שהוא משלם מודל</t>
+  </si>
+  <si>
+    <t>nhgfdsawedcrtfvgbnhjbgfvdcsxcf v</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="103" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1575,6 +1578,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10889D-214B-411D-8CB1-5FE3F768CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD9F2C-F624-4CFA-ADE7-11DD8CE34E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>מה נשאר לעשות:</t>
   </si>
@@ -35,7 +35,10 @@
     <t>תקינות ינפוט</t>
   </si>
   <si>
-    <t xml:space="preserve">הוספת תמונה </t>
+    <t>להוסיף הרשאות לגרפים</t>
+  </si>
+  <si>
+    <t>וגם בריאקט לטפל בזריקה..</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1560,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1602,12 +1605,19 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>1</v>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\214385239\Desktop\‏‏תיקיה חדשה\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AD9F2C-F624-4CFA-ADE7-11DD8CE34E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="תרשים1" sheetId="2" r:id="rId1"/>
@@ -21,31 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>מה נשאר לעשות:</t>
+    <t>vfghfg</t>
   </si>
   <si>
-    <t>סיסמא גם בריאקט וגם בסרבר</t>
-  </si>
-  <si>
-    <t>פלאפון</t>
-  </si>
-  <si>
-    <t>תקינות ינפוט</t>
-  </si>
-  <si>
-    <t>להוסיף הרשאות לגרפים</t>
-  </si>
-  <si>
-    <t>וגם בריאקט לטפל בזריקה..</t>
+    <t>לנקות קוד</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -69,6 +56,13 @@
       <color rgb="FF569CD6"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -120,6 +114,12 @@
       <alignment readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -929,7 +929,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
@@ -985,7 +985,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>107949</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1124,7 +1124,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:rowOff>146049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1172,7 +1172,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1316,7 +1316,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1553,156 +1553,134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="36.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C9" s="1"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
-        <v>4</v>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="4" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="4"/>
-    </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D48" s="1"/>
     </row>
-    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\214385239\Desktop\‏‏תיקיה חדשה\Final-Project-At-React-Node-MySql\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E5A75-DA95-49DE-BED1-4EE1EFB00563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="תרשים1" sheetId="2" r:id="rId1"/>
@@ -20,18 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>vfghfg</t>
   </si>
   <si>
     <t>לנקות קוד</t>
   </si>
+  <si>
+    <t xml:space="preserve">לאחד את הפונקציה של העלאת קבצים </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -929,7 +933,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0" zoomToFit="1"/>
@@ -1553,134 +1557,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="1.75">
       <c r="C9" s="1"/>
       <c r="F9" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G21" s="4"/>
     </row>
-    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G23" s="4"/>
     </row>
-    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G25" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:7" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:7" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:4" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:4" ht="12.5" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
     </row>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/אפיון הפרויקט הכי חתיך😊.xlsx
+++ b/אפיון הפרויקט הכי חתיך😊.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9090\Desktop\Final-Project-At-React-Node-MySql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E5A75-DA95-49DE-BED1-4EE1EFB00563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28E9BB5-0A60-4123-8F03-00F4693406BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>vfghfg</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">לאחד את הפונקציה של העלאת קבצים </t>
+  </si>
+  <si>
+    <t>ALL ORDERS</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1600,9 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="304.5" customHeight="1" x14ac:dyDescent="1.75">
       <c r="C9" s="1"/>
